--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_008/frequency_features.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_008/frequency_features.xlsx
@@ -532,40 +532,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B2" t="n">
-        <v>57.89637930365671</v>
+        <v>309.821989922642</v>
       </c>
       <c r="C2" t="n">
-        <v>97.10055355373517</v>
+        <v>1732.834901836803</v>
       </c>
       <c r="D2" t="n">
-        <v>5.61027204636259e-07</v>
+        <v>8.363590091071711e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001405772127716847</v>
+        <v>0.0003277619212135437</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.546192257581667</v>
+        <v>1.058323625509346</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1944788676088957</v>
+        <v>2.023066013716632</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0380283490301713</v>
+        <v>5.24631180834759</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.8914369202214619</v>
+        <v>-0.6930397050844644</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -581,54 +581,54 @@
         <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q2" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R2" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S2" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B3" t="n">
-        <v>134.2220734948008</v>
+        <v>163.5937900776764</v>
       </c>
       <c r="C3" t="n">
-        <v>215.7134979059426</v>
+        <v>659.2657079322142</v>
       </c>
       <c r="D3" t="n">
-        <v>7.792176626491298e-06</v>
+        <v>6.572865030822574e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004025881693841836</v>
+        <v>0.0006481419890928376</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.266245976366046</v>
+        <v>0.3745186110185905</v>
       </c>
       <c r="J3" t="n">
-        <v>0.326927932493301</v>
+        <v>0.9884069314777355</v>
       </c>
       <c r="K3" t="n">
-        <v>2.097561701577785</v>
+        <v>1.992675319101069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7612399434220527</v>
+        <v>-1.270282176815318</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -644,16 +644,16 @@
         <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q3" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R3" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S3" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
@@ -661,37 +661,37 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>45.53611128068669</v>
+        <v>74.82727404141036</v>
       </c>
       <c r="C4" t="n">
-        <v>104.2464292197665</v>
+        <v>351.6430079692886</v>
       </c>
       <c r="D4" t="n">
-        <v>2.503667619006602e-06</v>
+        <v>1.134325970851573e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0004950789848511815</v>
+        <v>0.000262384697290266</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4295859554781762</v>
+        <v>-0.2781683049866557</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2717052023631272</v>
+        <v>0.3849998900861875</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2365785732909884</v>
+        <v>0.4141149249413823</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.8647511296037427</v>
+        <v>-1.270467319261274</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -707,54 +707,54 @@
         <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q4" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R4" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S4" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B5" t="n">
-        <v>61.60272719821506</v>
+        <v>104.2282110572327</v>
       </c>
       <c r="C5" t="n">
-        <v>164.7019895432786</v>
+        <v>630.5267954418059</v>
       </c>
       <c r="D5" t="n">
-        <v>1.225230537053599e-05</v>
+        <v>4.188577439766888e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003877706798876427</v>
+        <v>0.001321228826050121</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5811578037567457</v>
+        <v>0.1994179447880861</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5643609648863994</v>
+        <v>0.8374293538167233</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7952414385578088</v>
+        <v>1.502095468124411</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.391246686251461</v>
+        <v>-2.175756589776088</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -770,54 +770,54 @@
         <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q5" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R5" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S5" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.09433962264150943</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>18.10741753128604</v>
+        <v>322.6713305432013</v>
       </c>
       <c r="C6" t="n">
-        <v>111.9140187447235</v>
+        <v>823.8141713753723</v>
       </c>
       <c r="D6" t="n">
-        <v>5.199886631008831e-07</v>
+        <v>1.80594372045755e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>9.811916691941442e-05</v>
+        <v>0.0001924267603312148</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.125300620680751</v>
+        <v>1.19952167488179</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3441170245897895</v>
+        <v>1.002954093395421</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8445952652809494</v>
+        <v>2.988911232099933</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4476152900705611</v>
+        <v>-0.4440876392889879</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q6" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R6" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S6" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7">
@@ -850,37 +850,37 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5628967860135</v>
+        <v>114.1558128448082</v>
       </c>
       <c r="C7" t="n">
-        <v>75.22527200527578</v>
+        <v>288.2215112270954</v>
       </c>
       <c r="D7" t="n">
-        <v>2.249258505254336e-07</v>
+        <v>1.952042367847561e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>6.117642443133933e-05</v>
+        <v>8.607592731102744e-05</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3449329885472972</v>
+        <v>-0.4243710514676885</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1857807298942889</v>
+        <v>0.2297994714677674</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03628160214062712</v>
+        <v>0.04035155355924793</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.7428679018175891</v>
+        <v>-1.049995701138541</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -896,16 +896,16 @@
         <v>8</v>
       </c>
       <c r="P7" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q7" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R7" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S7" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -913,37 +913,37 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>76.59502931730535</v>
+        <v>73.31698677050188</v>
       </c>
       <c r="C8" t="n">
-        <v>113.102004916744</v>
+        <v>237.300331912993</v>
       </c>
       <c r="D8" t="n">
-        <v>1.203727280364839e-07</v>
+        <v>6.004238404674819e-08</v>
       </c>
       <c r="E8" t="n">
-        <v>3.771511378977955e-05</v>
+        <v>5.899177238662871e-05</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.7225946162009939</v>
+        <v>-0.2725538541654345</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1273368852037695</v>
+        <v>0.2440320382882451</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.3809731878842472</v>
+        <v>0.2204690864046075</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.8623847452750167</v>
+        <v>-0.8448273820458084</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -959,54 +959,54 @@
         <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q8" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R8" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S8" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B9" t="n">
-        <v>72.23719871579824</v>
+        <v>129.1844322235634</v>
       </c>
       <c r="C9" t="n">
-        <v>193.3400622644492</v>
+        <v>636.962948391464</v>
       </c>
       <c r="D9" t="n">
-        <v>2.591713073457797e-07</v>
+        <v>5.847016338173999e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>4.766616686320664e-05</v>
+        <v>0.0003504140570516161</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6814830067528137</v>
+        <v>0.3033599535048443</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5612609929682002</v>
+        <v>0.8975557123864191</v>
       </c>
       <c r="K9" t="n">
-        <v>1.586463090476104</v>
+        <v>2.128743049818256</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.3843846288514944</v>
+        <v>-0.7690660145378571</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1022,54 +1022,54 @@
         <v>8</v>
       </c>
       <c r="P9" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q9" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R9" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S9" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B10" t="n">
-        <v>100.1265444730915</v>
+        <v>117.408931003172</v>
       </c>
       <c r="C10" t="n">
-        <v>142.9153191456832</v>
+        <v>487.5869669745102</v>
       </c>
       <c r="D10" t="n">
-        <v>1.796966165592524e-07</v>
+        <v>5.400803782853923e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001118165869712473</v>
+        <v>0.0001975834937666491</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9445900421989764</v>
+        <v>-0.1711958131552766</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1574130834871419</v>
+        <v>0.7411902943387972</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.4873431634678523</v>
+        <v>1.691053995290867</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.203937048709844</v>
+        <v>-1.367135357543455</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1085,16 +1085,16 @@
         <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q10" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R10" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S10" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11">
@@ -1102,37 +1102,37 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>82.50409346748935</v>
+        <v>264.1763240432621</v>
       </c>
       <c r="C11" t="n">
-        <v>251.1068975264874</v>
+        <v>914.2752609292726</v>
       </c>
       <c r="D11" t="n">
-        <v>1.110699436105626e-06</v>
+        <v>1.520267541855473e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003128608698175247</v>
+        <v>0.0002160860676366677</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7783405044102769</v>
+        <v>0.9820681191199335</v>
       </c>
       <c r="J11" t="n">
-        <v>0.599767635196463</v>
+        <v>1.14683453507152</v>
       </c>
       <c r="K11" t="n">
-        <v>1.793001700398905</v>
+        <v>3.414894907893883</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.942078193433475</v>
+        <v>-0.9280361681815205</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>8</v>
       </c>
       <c r="P11" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q11" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R11" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S11" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3773584905660377</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B12" t="n">
-        <v>19.01540609672534</v>
+        <v>90.07524978477095</v>
       </c>
       <c r="C12" t="n">
-        <v>130.9342557631439</v>
+        <v>637.496238892661</v>
       </c>
       <c r="D12" t="n">
-        <v>3.292920529320267e-06</v>
+        <v>6.466625950715911e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001297298658624131</v>
+        <v>0.003445086973524666</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1654059925046312</v>
+        <v>-0.03631605112092389</v>
       </c>
       <c r="J12" t="n">
-        <v>0.510255566208521</v>
+        <v>0.7970194986319163</v>
       </c>
       <c r="K12" t="n">
-        <v>1.412553320332482</v>
+        <v>1.835893590894632</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.6861717311924641</v>
+        <v>-1.537572830053545</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
         <v>8</v>
       </c>
       <c r="P12" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q12" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R12" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S12" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
@@ -1228,37 +1228,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>223.3789157638142</v>
+        <v>46.18706017580673</v>
       </c>
       <c r="C13" t="n">
-        <v>369.253065142026</v>
+        <v>290.1946564247388</v>
       </c>
       <c r="D13" t="n">
-        <v>2.134139912581565e-07</v>
+        <v>4.410629876552606e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>4.760932646871677e-05</v>
+        <v>6.139723690705086e-05</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.107348261922775</v>
+        <v>-0.171699108460248</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6935259050302727</v>
+        <v>0.3518637591769984</v>
       </c>
       <c r="K13" t="n">
-        <v>3.223442819531745</v>
+        <v>1.034046009133555</v>
       </c>
       <c r="L13" t="n">
-        <v>1.072778197897178</v>
+        <v>-0.5828840331767147</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1274,16 +1274,16 @@
         <v>8</v>
       </c>
       <c r="P13" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q13" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R13" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S13" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14">
@@ -1291,37 +1291,37 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>166.428110455041</v>
+        <v>217.762314488218</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7979088495132</v>
+        <v>411.4963460423778</v>
       </c>
       <c r="D14" t="n">
-        <v>9.968482360384718e-07</v>
+        <v>3.382647395480781e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000304755050840491</v>
+        <v>0.0002321050952605805</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.570076513726801</v>
+        <v>-0.8095253326699551</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8259484567253739</v>
+        <v>0.247020817502852</v>
       </c>
       <c r="K14" t="n">
-        <v>3.152393995736928</v>
+        <v>-0.4045938280455355</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4345526511037746</v>
+        <v>-1.495674830274018</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         <v>8</v>
       </c>
       <c r="P14" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q14" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R14" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S14" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -1354,37 +1354,37 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>167.2442464905133</v>
+        <v>80.11059839536208</v>
       </c>
       <c r="C15" t="n">
-        <v>371.0514254122139</v>
+        <v>400.221603179855</v>
       </c>
       <c r="D15" t="n">
-        <v>3.567541284091106e-08</v>
+        <v>2.016150644478953e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001139626227846036</v>
+        <v>9.022072831979579e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.577775910287861</v>
+        <v>0.2978089159678888</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7349325796554319</v>
+        <v>0.4504654971085478</v>
       </c>
       <c r="K15" t="n">
-        <v>3.078648735711701</v>
+        <v>1.83044249730309</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.5811930018013299</v>
+        <v>-0.5520871369601369</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1400,54 +1400,54 @@
         <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q15" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R15" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S15" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B16" t="n">
-        <v>45.60759093023896</v>
+        <v>163.1569706239774</v>
       </c>
       <c r="C16" t="n">
-        <v>113.8707518165432</v>
+        <v>797.1986259576812</v>
       </c>
       <c r="D16" t="n">
-        <v>1.415936870906599e-07</v>
+        <v>1.112026529858811e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>2.610596485959857e-05</v>
+        <v>8.990675102209451e-05</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.430260291794707</v>
+        <v>-0.04987666097030459</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3138302680404633</v>
+        <v>1.140916223124412</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.04547385794822616</v>
+        <v>2.502029960423431</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.064880358097942</v>
+        <v>-1.205543686382784</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1463,54 +1463,54 @@
         <v>8</v>
       </c>
       <c r="P16" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q16" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R16" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S16" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B17" t="n">
-        <v>55.90094714029459</v>
+        <v>157.5634420896747</v>
       </c>
       <c r="C17" t="n">
-        <v>76.22953948444291</v>
+        <v>475.1125436590846</v>
       </c>
       <c r="D17" t="n">
-        <v>1.105151559339242e-08</v>
+        <v>3.53814818033899e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>1.744891689700741e-05</v>
+        <v>8.248367553771897e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5273674258518357</v>
+        <v>0.2504819789251442</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08196969497370159</v>
+        <v>0.887277504928923</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.3867563128629573</v>
+        <v>2.0506785992168</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.6612639447167737</v>
+        <v>-0.7907103076801727</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1526,54 +1526,54 @@
         <v>8</v>
       </c>
       <c r="P17" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q17" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R17" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S17" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B18" t="n">
-        <v>92.82513016385977</v>
+        <v>115.4711808844639</v>
       </c>
       <c r="C18" t="n">
-        <v>240.7548296904216</v>
+        <v>498.1103778687605</v>
       </c>
       <c r="D18" t="n">
-        <v>3.574888991750853e-06</v>
+        <v>1.797378558162387e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0009093332618171405</v>
+        <v>0.0002663748406967496</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8757087751307525</v>
+        <v>-0.03742958670060917</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6701639036004973</v>
+        <v>0.8047860480603304</v>
       </c>
       <c r="K18" t="n">
-        <v>1.965996449183155</v>
+        <v>1.822248186270865</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.6875110759168613</v>
+        <v>-1.665947932184601</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1589,16 +1589,16 @@
         <v>8</v>
       </c>
       <c r="P18" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q18" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R18" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S18" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19">
@@ -1606,37 +1606,37 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>78.5596123049483</v>
+        <v>95.9361455929151</v>
       </c>
       <c r="C19" t="n">
-        <v>107.3182103661278</v>
+        <v>226.7556925434411</v>
       </c>
       <c r="D19" t="n">
-        <v>2.938374515333213e-08</v>
+        <v>8.963797725099592e-08</v>
       </c>
       <c r="E19" t="n">
-        <v>5.638825990587004e-05</v>
+        <v>8.209617506944045e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.7411284179712105</v>
+        <v>-0.3566399464420636</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1201232330403228</v>
+        <v>0.1716103822430674</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.4638376261763667</v>
+        <v>-0.03874672086830033</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.9440973662509297</v>
+        <v>-0.7829082803980695</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1652,16 +1652,16 @@
         <v>8</v>
       </c>
       <c r="P19" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q19" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R19" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S19" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20">
@@ -1669,37 +1669,37 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>99.87128116927761</v>
+        <v>208.6075882485053</v>
       </c>
       <c r="C20" t="n">
-        <v>126.288165071337</v>
+        <v>298.0622165251556</v>
       </c>
       <c r="D20" t="n">
-        <v>1.564864189430011e-07</v>
+        <v>1.034749832565364e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>7.894108073114669e-05</v>
+        <v>6.430306802618325e-05</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9421818978233737</v>
+        <v>-0.7754928931171198</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1240012252948642</v>
+        <v>0.1243069445853251</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.7064540981327783</v>
+        <v>-0.4589621746311657</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.140074457629656</v>
+        <v>-1.03497597774136</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1715,16 +1715,16 @@
         <v>8</v>
       </c>
       <c r="P20" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q20" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R20" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S20" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21">
@@ -1732,37 +1732,37 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>60.38736658740598</v>
+        <v>86.89033206128002</v>
       </c>
       <c r="C21" t="n">
-        <v>99.94040842993914</v>
+        <v>420.0614608286283</v>
       </c>
       <c r="D21" t="n">
-        <v>7.553692782215988e-07</v>
+        <v>6.998932397717253e-08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0001718445658469581</v>
+        <v>6.465698268870419e-05</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5696921376170376</v>
+        <v>-0.3230123868449074</v>
       </c>
       <c r="J21" t="n">
-        <v>0.162950870819197</v>
+        <v>0.5923080552030352</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2574493308173295</v>
+        <v>1.079255444983919</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.9504015959609063</v>
+        <v>-1.002059541312444</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
         <v>8</v>
       </c>
       <c r="P21" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q21" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R21" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S21" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1795,37 +1795,37 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>85.09275371463102</v>
+        <v>338.4552811361792</v>
       </c>
       <c r="C22" t="n">
-        <v>114.8876701813618</v>
+        <v>990.094012068799</v>
       </c>
       <c r="D22" t="n">
-        <v>1.873799853848258e-07</v>
+        <v>7.741935367426934e-07</v>
       </c>
       <c r="E22" t="n">
-        <v>2.82916383426906e-05</v>
+        <v>0.0003358925246741682</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8027618274965189</v>
+        <v>1.258198071138213</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1199851745898155</v>
+        <v>0.8834287946298416</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.6073882335449767</v>
+        <v>3.131485053499832</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.0591179162993</v>
+        <v>-0.1672803014235083</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1841,54 +1841,54 @@
         <v>8</v>
       </c>
       <c r="P22" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q22" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R22" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S22" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B23" t="n">
-        <v>35.81220138460152</v>
+        <v>75.03964410772869</v>
       </c>
       <c r="C23" t="n">
-        <v>131.6248409235556</v>
+        <v>555.511524136631</v>
       </c>
       <c r="D23" t="n">
-        <v>1.564629453408383e-06</v>
+        <v>9.33611612765016e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0001401916764375852</v>
+        <v>0.0004736586439427373</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3378509564585049</v>
+        <v>0.07056922001071075</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4309899430413631</v>
+        <v>0.6390238330494949</v>
       </c>
       <c r="K23" t="n">
-        <v>1.321525986619083</v>
+        <v>1.269714830912396</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.4774705399562904</v>
+        <v>-0.9803242066708199</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1904,54 +1904,54 @@
         <v>8</v>
       </c>
       <c r="P23" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q23" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R23" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S23" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B24" t="n">
-        <v>51.53604302149783</v>
+        <v>83.2780629857904</v>
       </c>
       <c r="C24" t="n">
-        <v>130.0605252497827</v>
+        <v>445.0000901712558</v>
       </c>
       <c r="D24" t="n">
-        <v>3.406058322407714e-07</v>
+        <v>1.848609273255456e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0001873560053849029</v>
+        <v>0.0002018857304228278</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="G24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>-0.4861890851084701</v>
+        <v>-0.02111926640785905</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3034940328819983</v>
+        <v>0.6683946599993916</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4358917003761892</v>
+        <v>2.170513417659568</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.9181934526450835</v>
+        <v>-1.099080891309588</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1967,54 +1967,54 @@
         <v>8</v>
       </c>
       <c r="P24" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q24" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R24" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S24" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.09433962264150943</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B25" t="n">
-        <v>55.85494004331242</v>
+        <v>88.87353381610566</v>
       </c>
       <c r="C25" t="n">
-        <v>223.3602677014769</v>
+        <v>465.8705405091586</v>
       </c>
       <c r="D25" t="n">
-        <v>2.587771153599084e-07</v>
+        <v>1.020422104284002e-07</v>
       </c>
       <c r="E25" t="n">
-        <v>4.720817617186302e-05</v>
+        <v>7.680592083069061e-05</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4336138490696128</v>
+        <v>-0.04160930132653833</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9090632061014773</v>
+        <v>0.7114430760744408</v>
       </c>
       <c r="K25" t="n">
-        <v>1.696787829598079</v>
+        <v>2.138573338793945</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.9923655297125958</v>
+        <v>-0.7378190119298309</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2030,54 +2030,54 @@
         <v>8</v>
       </c>
       <c r="P25" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q25" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R25" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S25" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.09433962264150943</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B26" t="n">
-        <v>31.40025229880836</v>
+        <v>355.727956367575</v>
       </c>
       <c r="C26" t="n">
-        <v>114.8198180808538</v>
+        <v>1687.799424707649</v>
       </c>
       <c r="D26" t="n">
-        <v>2.112105082185889e-06</v>
+        <v>3.731885704067821e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003380386334598784</v>
+        <v>0.0003115792686359828</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1009283353076603</v>
+        <v>1.154064174792092</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5418504052716845</v>
+        <v>2.233288418875544</v>
       </c>
       <c r="K26" t="n">
-        <v>1.352083896984154</v>
+        <v>5.003162198210398</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.7826398943953183</v>
+        <v>-0.7173032832187285</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2093,54 +2093,54 @@
         <v>8</v>
       </c>
       <c r="P26" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q26" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R26" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S26" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.09433962264150943</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>19.85020373377348</v>
+        <v>148.9330178885793</v>
       </c>
       <c r="C27" t="n">
-        <v>111.2781258216975</v>
+        <v>385.7405676613862</v>
       </c>
       <c r="D27" t="n">
-        <v>2.145689740971818e-07</v>
+        <v>3.024805668663796e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>7.49128546725285e-05</v>
+        <v>0.0003310974879824038</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04986570000382057</v>
+        <v>-0.5536543415932319</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3696074088844921</v>
+        <v>0.268171260057533</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8944465103687779</v>
+        <v>0.09195924330724817</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.46548140295806</v>
+        <v>-1.168706212771478</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2156,54 +2156,54 @@
         <v>8</v>
       </c>
       <c r="P27" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q27" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R27" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S27" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.09433962264150943</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>59.18166176467421</v>
+        <v>193.8113474887019</v>
       </c>
       <c r="C28" t="n">
-        <v>176.5739826996654</v>
+        <v>930.02994604739</v>
       </c>
       <c r="D28" t="n">
-        <v>5.686595888874896e-07</v>
+        <v>3.561039883260692e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0002363241569822939</v>
+        <v>0.0003798526055437892</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1553431596536553</v>
+        <v>0.7204882806271445</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8928961791346767</v>
+        <v>1.082357838261074</v>
       </c>
       <c r="K28" t="n">
-        <v>1.491197666616829</v>
+        <v>3.959637028130828</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.096994010792429</v>
+        <v>-0.7267102672769897</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2219,54 +2219,54 @@
         <v>8</v>
       </c>
       <c r="P28" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q28" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R28" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S28" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B29" t="n">
-        <v>52.48585313068214</v>
+        <v>141.9531426688754</v>
       </c>
       <c r="C29" t="n">
-        <v>102.3615569251903</v>
+        <v>736.6992150730449</v>
       </c>
       <c r="D29" t="n">
-        <v>3.137981049469081e-06</v>
+        <v>8.488084040980413e-07</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0003470088011287469</v>
+        <v>0.0007103556173867847</v>
       </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4951495578366239</v>
+        <v>0.3113135996189124</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2170458303389249</v>
+        <v>1.019858107660321</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02562386066584141</v>
+        <v>3.750621180274754</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.918335197283663</v>
+        <v>-0.706887753210575</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>8</v>
       </c>
       <c r="P29" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q29" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R29" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S29" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -2299,37 +2299,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>44.19180539964486</v>
+        <v>136.3698536006167</v>
       </c>
       <c r="C30" t="n">
-        <v>107.7459316653395</v>
+        <v>442.8744951086289</v>
       </c>
       <c r="D30" t="n">
-        <v>8.855804610307357e-08</v>
+        <v>1.018510951934457e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0002230695283280056</v>
+        <v>0.0007771131336797225</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.4169038245249516</v>
+        <v>-0.5069511286268279</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1929230297075287</v>
+        <v>0.3982587510983128</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05161020796670846</v>
+        <v>0.5701527058791819</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.7530442779426322</v>
+        <v>-1.452291296615138</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2345,54 +2345,54 @@
         <v>8</v>
       </c>
       <c r="P30" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q30" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R30" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S30" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.09433962264150943</v>
+        <v>0.07434944237918215</v>
       </c>
       <c r="B31" t="n">
-        <v>41.11596346898456</v>
+        <v>112.8942463254172</v>
       </c>
       <c r="C31" t="n">
-        <v>218.3221492161055</v>
+        <v>525.27815375431</v>
       </c>
       <c r="D31" t="n">
-        <v>2.597006353500712e-07</v>
+        <v>3.900264363156864e-07</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000125518579233727</v>
+        <v>0.000314200141970233</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2540951651131357</v>
+        <v>0.1028233229577931</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7082727309763922</v>
+        <v>0.8211882514768468</v>
       </c>
       <c r="K31" t="n">
-        <v>1.88408771394981</v>
+        <v>1.885959042332649</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.6400197887199671</v>
+        <v>-1.441886169219302</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2408,16 +2408,16 @@
         <v>8</v>
       </c>
       <c r="P31" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q31" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R31" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S31" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
@@ -2425,37 +2425,37 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>29.7110198176068</v>
+        <v>71.08946500665972</v>
       </c>
       <c r="C32" t="n">
-        <v>115.7342233456939</v>
+        <v>348.696666545985</v>
       </c>
       <c r="D32" t="n">
-        <v>5.614171743168087e-07</v>
+        <v>1.831654888628399e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0002782140552575836</v>
+        <v>0.0008905816690753855</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2802926397887434</v>
+        <v>-0.2642731041139767</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4188120814834506</v>
+        <v>0.2827039333256092</v>
       </c>
       <c r="K32" t="n">
-        <v>1.314344324126115</v>
+        <v>0.3579898331763599</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.3393509112344776</v>
+        <v>-0.833689611055801</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2471,54 +2471,54 @@
         <v>8</v>
       </c>
       <c r="P32" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q32" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R32" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S32" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>0.07434944237918215</v>
       </c>
       <c r="B33" t="n">
-        <v>64.5144408127351</v>
+        <v>55.69335618673934</v>
       </c>
       <c r="C33" t="n">
-        <v>112.5445019367444</v>
+        <v>405.2814857017508</v>
       </c>
       <c r="D33" t="n">
-        <v>1.530593665048197e-07</v>
+        <v>1.135003011715278e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001295156203639359</v>
+        <v>0.0006724651414730276</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6086268001201424</v>
+        <v>0.05473041427751741</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2297813515942455</v>
+        <v>0.4571640444422189</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.09106005741514916</v>
+        <v>1.259088145284777</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.9951772136797316</v>
+        <v>-0.7997774919277681</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>8</v>
       </c>
       <c r="P33" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q33" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R33" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S33" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B34" t="n">
-        <v>56.13654636850599</v>
+        <v>72.61421019864467</v>
       </c>
       <c r="C34" t="n">
-        <v>95.43460248245515</v>
+        <v>471.0305541495424</v>
       </c>
       <c r="D34" t="n">
-        <v>4.958009572006403e-07</v>
+        <v>2.14473107024393e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001961137877103678</v>
+        <v>0.0005584004163175965</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.5295900600802451</v>
+        <v>-0.2421616178520623</v>
       </c>
       <c r="J34" t="n">
-        <v>0.141613347854707</v>
+        <v>0.5555924740186806</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.174889984918558</v>
+        <v>1.097806715093204</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.7937659343109092</v>
+        <v>-1.013362669802071</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2597,16 +2597,16 @@
         <v>8</v>
       </c>
       <c r="P34" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q34" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R34" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S34" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
@@ -2614,37 +2614,37 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>69.74927962092777</v>
+        <v>97.60060163951108</v>
       </c>
       <c r="C35" t="n">
-        <v>107.2457258613679</v>
+        <v>631.4823604173172</v>
       </c>
       <c r="D35" t="n">
-        <v>6.500176235673633e-07</v>
+        <v>1.451677506735471e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>8.518623261338815e-05</v>
+        <v>0.0005733142952930774</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.658012071895545</v>
+        <v>-0.3628275153885171</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1803669882531393</v>
+        <v>0.6523596883448267</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.221421166865208</v>
+        <v>1.425101197708507</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.9681719447894716</v>
+        <v>-1.206704815348878</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2660,54 +2660,54 @@
         <v>8</v>
       </c>
       <c r="P35" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q35" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R35" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S35" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B36" t="n">
-        <v>29.76573560831704</v>
+        <v>156.4884414683983</v>
       </c>
       <c r="C36" t="n">
-        <v>92.73561120965762</v>
+        <v>630.6640673523351</v>
       </c>
       <c r="D36" t="n">
-        <v>5.882316695035081e-07</v>
+        <v>2.159650008603335e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>8.596150320989607e-05</v>
+        <v>0.0003846715912997543</v>
       </c>
       <c r="F36" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.2808088264935569</v>
+        <v>0.1564189515218711</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2194103462562281</v>
+        <v>0.9690340475903237</v>
       </c>
       <c r="K36" t="n">
-        <v>0.185753738044733</v>
+        <v>2.895323431178711</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.6049994795382654</v>
+        <v>-1.181265135551254</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2723,54 +2723,54 @@
         <v>8</v>
       </c>
       <c r="P36" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q36" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R36" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S36" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B37" t="n">
-        <v>127.41573057948</v>
+        <v>41.91235729832665</v>
       </c>
       <c r="C37" t="n">
-        <v>247.9512376491478</v>
+        <v>392.028785874041</v>
       </c>
       <c r="D37" t="n">
-        <v>1.331847484273853e-06</v>
+        <v>1.484138683071144e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0003739337815823052</v>
+        <v>0.000297534886700628</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.202035194146038</v>
+        <v>0.04689219452998071</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4182894367551879</v>
+        <v>0.448339239316364</v>
       </c>
       <c r="K37" t="n">
-        <v>2.623495198896412</v>
+        <v>0.99497688751189</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6863415499032686</v>
+        <v>-1.202625436947406</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2786,16 +2786,16 @@
         <v>8</v>
       </c>
       <c r="P37" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q37" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R37" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S37" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
@@ -2803,37 +2803,37 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>57.79950849779652</v>
+        <v>88.08328156465274</v>
       </c>
       <c r="C38" t="n">
-        <v>115.6944924073026</v>
+        <v>218.7384007785306</v>
       </c>
       <c r="D38" t="n">
-        <v>1.126860473875634e-07</v>
+        <v>3.510138458338971e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001335550401110605</v>
+        <v>0.0001800588319263388</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.5452783820546842</v>
+        <v>-0.3274471433630212</v>
       </c>
       <c r="J38" t="n">
-        <v>0.286079177204443</v>
+        <v>0.1576872596531633</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1098409202031303</v>
+        <v>-0.03999504344226375</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.8868608635930822</v>
+        <v>-0.745335519836878</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2849,16 +2849,16 @@
         <v>8</v>
       </c>
       <c r="P38" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q38" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R38" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S38" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
@@ -2866,37 +2866,37 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>76.75867658896811</v>
+        <v>106.257002956856</v>
       </c>
       <c r="C39" t="n">
-        <v>179.8815638778698</v>
+        <v>575.048740144924</v>
       </c>
       <c r="D39" t="n">
-        <v>3.999798429114848e-06</v>
+        <v>2.500853341423895e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0006489544406642797</v>
+        <v>0.001081498276341994</v>
       </c>
       <c r="F39" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7241384583864915</v>
+        <v>-0.3950074459362677</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4404998224199447</v>
+        <v>0.4647393025257441</v>
       </c>
       <c r="K39" t="n">
-        <v>1.916571745947914</v>
+        <v>0.8029225658875421</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.1208232700017087</v>
+        <v>-1.383627132493678</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2912,33 +2912,33 @@
         <v>8</v>
       </c>
       <c r="P39" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q39" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R39" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S39" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.07434944237918215</v>
       </c>
       <c r="B40" t="n">
-        <v>199.9069628926834</v>
+        <v>16.06362696794252</v>
       </c>
       <c r="C40" t="n">
-        <v>327.5113879067459</v>
+        <v>201.0491251884566</v>
       </c>
       <c r="D40" t="n">
-        <v>1.696955820402021e-06</v>
+        <v>3.228385434384076e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003404308515648396</v>
+        <v>0.0002755315335384742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.885914744270598</v>
+        <v>0.03480979122497165</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6351987520603711</v>
+        <v>0.2142428638943434</v>
       </c>
       <c r="K40" t="n">
-        <v>3.265851210747029</v>
+        <v>0.6043937927670714</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6118866656725637</v>
+        <v>-0.4584717212758924</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2975,54 +2975,54 @@
         <v>8</v>
       </c>
       <c r="P40" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q40" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R40" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S40" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.09433962264150943</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>19.95458946173211</v>
+        <v>64.15579750735991</v>
       </c>
       <c r="C41" t="n">
-        <v>153.7294578600637</v>
+        <v>476.1414448326558</v>
       </c>
       <c r="D41" t="n">
-        <v>8.16174097092302e-07</v>
+        <v>4.515706070391805e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002623567221258474</v>
+        <v>0.0007258400164916979</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1236967531578317</v>
+        <v>0.2384973885031966</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4746416876382926</v>
+        <v>0.5463370579918518</v>
       </c>
       <c r="K41" t="n">
-        <v>0.523053413171006</v>
+        <v>1.907241915362094</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.326996766624064</v>
+        <v>-0.6673244845248341</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3038,54 +3038,54 @@
         <v>8</v>
       </c>
       <c r="P41" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q41" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R41" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S41" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B42" t="n">
-        <v>29.1971653737616</v>
+        <v>93.82387426174347</v>
       </c>
       <c r="C42" t="n">
-        <v>73.11561271710757</v>
+        <v>462.5287184687956</v>
       </c>
       <c r="D42" t="n">
-        <v>4.806212006998277e-07</v>
+        <v>2.696739571445332e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0002894949153602238</v>
+        <v>0.0004085809383409131</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.2754449563562415</v>
+        <v>0.1299909010526626</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1887756645892446</v>
+        <v>0.6625923945814735</v>
       </c>
       <c r="K42" t="n">
-        <v>0.09356640436792084</v>
+        <v>2.072220849057709</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.650807182754692</v>
+        <v>-1.032562013595369</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3101,16 +3101,16 @@
         <v>8</v>
       </c>
       <c r="P42" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q42" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R42" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S42" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43">
@@ -3118,37 +3118,37 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>75.24721382622859</v>
+        <v>48.3065493092641</v>
       </c>
       <c r="C43" t="n">
-        <v>219.4418638594053</v>
+        <v>361.5193112978772</v>
       </c>
       <c r="D43" t="n">
-        <v>1.392540149018162e-06</v>
+        <v>1.753345218253033e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0003221982068371994</v>
+        <v>0.0006420119845530245</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.7098793757191376</v>
+        <v>-0.1795782502203126</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5257392167066344</v>
+        <v>0.3398176819447178</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7827766364681633</v>
+        <v>0.5422959864893003</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.422191093724894</v>
+        <v>-0.9320494515103052</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3164,54 +3164,54 @@
         <v>8</v>
       </c>
       <c r="P43" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q43" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R43" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S43" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.09433962264150943</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B44" t="n">
-        <v>107.2103443964423</v>
+        <v>54.14923782946459</v>
       </c>
       <c r="C44" t="n">
-        <v>417.0964501863664</v>
+        <v>337.4350296839949</v>
       </c>
       <c r="D44" t="n">
-        <v>4.804527338544419e-06</v>
+        <v>1.342545433978988e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006408211291869904</v>
+        <v>0.0007911360696945605</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9835299013928667</v>
+        <v>0.04558000565151803</v>
       </c>
       <c r="J44" t="n">
-        <v>1.596573835072234</v>
+        <v>0.4125248013362541</v>
       </c>
       <c r="K44" t="n">
-        <v>4.001301792535731</v>
+        <v>1.160305002712267</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.6955274092263173</v>
+        <v>-0.8287778420806299</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3227,16 +3227,16 @@
         <v>8</v>
       </c>
       <c r="P44" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q44" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R44" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S44" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45">
@@ -3244,37 +3244,37 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>36.31608882768759</v>
+        <v>65.58779225601879</v>
       </c>
       <c r="C45" t="n">
-        <v>69.41272103350096</v>
+        <v>263.951702764984</v>
       </c>
       <c r="D45" t="n">
-        <v>1.099715298018495e-06</v>
+        <v>1.148515348875566e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0002472847976357408</v>
+        <v>0.0005798126684923674</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.3426046115819583</v>
+        <v>-0.2438207890558319</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1096368822795659</v>
+        <v>0.2098747269770874</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.02833997309880331</v>
+        <v>0.2524790860789532</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.5650287938409884</v>
+        <v>-0.7291789493036845</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3290,54 +3290,54 @@
         <v>8</v>
       </c>
       <c r="P45" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q45" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R45" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S45" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.09433962264150943</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B46" t="n">
-        <v>51.77144703724279</v>
+        <v>117.1198751661379</v>
       </c>
       <c r="C46" t="n">
-        <v>315.9296794752297</v>
+        <v>649.3432950294134</v>
       </c>
       <c r="D46" t="n">
-        <v>1.411946241746981e-06</v>
+        <v>3.546978328369863e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0005748233444577561</v>
+        <v>0.0008591753532284361</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.260678829917697</v>
+        <v>0.236293565171181</v>
       </c>
       <c r="J46" t="n">
-        <v>1.039206101272273</v>
+        <v>0.7690005502460555</v>
       </c>
       <c r="K46" t="n">
-        <v>2.402898378571275</v>
+        <v>2.068907474909079</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.085725407118416</v>
+        <v>-1.141166919794489</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3353,54 +3353,54 @@
         <v>8</v>
       </c>
       <c r="P46" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q46" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R46" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S46" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B47" t="n">
-        <v>124.2985250602197</v>
+        <v>63.91519889185807</v>
       </c>
       <c r="C47" t="n">
-        <v>247.9754348535029</v>
+        <v>617.4687685741203</v>
       </c>
       <c r="D47" t="n">
-        <v>1.358331201227171e-06</v>
+        <v>1.92434644707605e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0006428922816703647</v>
+        <v>0.001010794102074375</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.172627594907733</v>
+        <v>0.1947771732962538</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5272661798002384</v>
+        <v>0.6443600321458681</v>
       </c>
       <c r="K47" t="n">
-        <v>2.015697890329344</v>
+        <v>2.33566450103979</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.008073497680032019</v>
+        <v>-0.8678652087600784</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3416,16 +3416,16 @@
         <v>8</v>
       </c>
       <c r="P47" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q47" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R47" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S47" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
@@ -3433,37 +3433,37 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>35.02574085590502</v>
+        <v>59.07015772512393</v>
       </c>
       <c r="C48" t="n">
-        <v>237.140025858692</v>
+        <v>551.8582332770928</v>
       </c>
       <c r="D48" t="n">
-        <v>8.648722850454992e-05</v>
+        <v>1.673304677756108e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002815543035271177</v>
+        <v>0.002629284917193433</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3304315175085379</v>
+        <v>-0.2195916644056652</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8103687019043396</v>
+        <v>0.4640220320925798</v>
       </c>
       <c r="K48" t="n">
-        <v>3.87514406871243</v>
+        <v>0.8661843856089555</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.7611753020618672</v>
+        <v>-1.234342207556</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3479,54 +3479,54 @@
         <v>8</v>
       </c>
       <c r="P48" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q48" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R48" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S48" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.09433962264150943</v>
+        <v>0.1115241635687732</v>
       </c>
       <c r="B49" t="n">
-        <v>22.46658516614055</v>
+        <v>63.08331664068223</v>
       </c>
       <c r="C49" t="n">
-        <v>117.7442186561669</v>
+        <v>636.57585688796</v>
       </c>
       <c r="D49" t="n">
-        <v>8.713374718041741e-06</v>
+        <v>3.57358951415464e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0008715211921940439</v>
+        <v>0.001432172961290623</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.004126288725770372</v>
+        <v>0.2113644740406622</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4525069901352979</v>
+        <v>0.6679665866135129</v>
       </c>
       <c r="K49" t="n">
-        <v>1.056238415894975</v>
+        <v>2.125620794850429</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.760686179951252</v>
+        <v>-0.8133267810117065</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3542,54 +3542,54 @@
         <v>8</v>
       </c>
       <c r="P49" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q49" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R49" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S49" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.09433962264150943</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>37.24091202517299</v>
+        <v>253.2849574814361</v>
       </c>
       <c r="C50" t="n">
-        <v>166.3141694581101</v>
+        <v>880.0974533157879</v>
       </c>
       <c r="D50" t="n">
-        <v>2.278410761294909e-06</v>
+        <v>2.215993990822442e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001190715829033637</v>
+        <v>0.001149565452641864</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.273754964709596</v>
+        <v>0.9415797675889818</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6591992495763411</v>
+        <v>0.8109073635265166</v>
       </c>
       <c r="K50" t="n">
-        <v>1.574022891612837</v>
+        <v>2.908337973053674</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.122802022111506</v>
+        <v>-0.3431600311563054</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3605,16 +3605,16 @@
         <v>8</v>
       </c>
       <c r="P50" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q50" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R50" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S50" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51">
@@ -3622,37 +3622,37 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>171.3641936967909</v>
+        <v>72.60544300309004</v>
       </c>
       <c r="C51" t="n">
-        <v>313.1219837646619</v>
+        <v>423.2085012983005</v>
       </c>
       <c r="D51" t="n">
-        <v>2.511674297317465e-06</v>
+        <v>2.052259979689477e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0009245703092909747</v>
+        <v>0.0005566127251575232</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>1.616643336762178</v>
+        <v>-0.2699087100486621</v>
       </c>
       <c r="J51" t="n">
-        <v>0.6576393620369249</v>
+        <v>0.3662289990741042</v>
       </c>
       <c r="K51" t="n">
-        <v>2.847932490221055</v>
+        <v>0.4833132351726288</v>
       </c>
       <c r="L51" t="n">
-        <v>0.162966428422557</v>
+        <v>-1.043240767122472</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3668,16 +3668,16 @@
         <v>8</v>
       </c>
       <c r="P51" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q51" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R51" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S51" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52">
@@ -3685,37 +3685,37 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>37.74285174311906</v>
+        <v>50.75521763054484</v>
       </c>
       <c r="C52" t="n">
-        <v>112.3334286056179</v>
+        <v>429.592824231755</v>
       </c>
       <c r="D52" t="n">
-        <v>3.006273172954593e-06</v>
+        <v>1.255112406275597e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001404143623839009</v>
+        <v>0.0009727790436421954</v>
       </c>
       <c r="F52" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.3560646390860289</v>
+        <v>-0.1886811064332521</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3452294366652097</v>
+        <v>0.4264373662200906</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4625911271709146</v>
+        <v>0.8702984724988724</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.9055446826513261</v>
+        <v>-1.213107033356106</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3731,54 +3731,54 @@
         <v>8</v>
       </c>
       <c r="P52" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q52" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R52" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S52" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.07434944237918215</v>
       </c>
       <c r="B53" t="n">
-        <v>11.00807209532212</v>
+        <v>49.6799226616699</v>
       </c>
       <c r="C53" t="n">
-        <v>75.80166248208246</v>
+        <v>451.6011442763126</v>
       </c>
       <c r="D53" t="n">
-        <v>1.359390657015841e-06</v>
+        <v>4.257741111695048e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0004087870047827911</v>
+        <v>0.001502777793380082</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.06236900241846864</v>
+        <v>-0.1131239280071309</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2517662888930945</v>
+        <v>0.4861977266460725</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4442506487609549</v>
+        <v>0.9561578223968271</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.6703102245328096</v>
+        <v>-1.087758192444827</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3794,54 +3794,54 @@
         <v>8</v>
       </c>
       <c r="P53" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q53" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R53" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S53" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B54" t="n">
-        <v>63.76524026249957</v>
+        <v>95.78129725910966</v>
       </c>
       <c r="C54" t="n">
-        <v>137.2977615936546</v>
+        <v>464.2931213213434</v>
       </c>
       <c r="D54" t="n">
-        <v>2.473336426113606e-06</v>
+        <v>4.285252068562397e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0002970524570800875</v>
+        <v>0.0009171929528995033</v>
       </c>
       <c r="F54" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.6015588704009394</v>
+        <v>-0.08052682582393782</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2788340838804005</v>
+        <v>0.6330364122455605</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.06476044123587965</v>
+        <v>1.391543618431412</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.082554339907752</v>
+        <v>-0.9933693420231764</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3857,16 +3857,16 @@
         <v>8</v>
       </c>
       <c r="P54" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q54" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R54" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S54" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55">
@@ -3874,37 +3874,37 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>39.93564926719721</v>
+        <v>43.16761816194806</v>
       </c>
       <c r="C55" t="n">
-        <v>184.5567886002625</v>
+        <v>297.2466533944662</v>
       </c>
       <c r="D55" t="n">
-        <v>1.28936830309938e-06</v>
+        <v>2.014685788179611e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0004257848685614541</v>
+        <v>0.0005219992416274294</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3767514081811057</v>
+        <v>-0.1604744169589148</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6218092248067268</v>
+        <v>0.2748376956456215</v>
       </c>
       <c r="K55" t="n">
-        <v>1.634567182302069</v>
+        <v>0.7586320209780315</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.6484919210164772</v>
+        <v>-0.7571517187969755</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>8</v>
       </c>
       <c r="P55" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q55" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R55" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S55" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B56" t="n">
-        <v>92.51661306797412</v>
+        <v>140.085060387338</v>
       </c>
       <c r="C56" t="n">
-        <v>278.0597761620153</v>
+        <v>632.297828168554</v>
       </c>
       <c r="D56" t="n">
-        <v>4.956601187815462e-07</v>
+        <v>3.483231416831709e-07</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000244208476927442</v>
+        <v>0.0003679293631181261</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8727982364903221</v>
+        <v>0.052595458233142</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9750145744136509</v>
+        <v>0.9546185548674716</v>
       </c>
       <c r="K56" t="n">
-        <v>2.810143002213474</v>
+        <v>3.239207153278792</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.5176935923687842</v>
+        <v>-0.944624190707946</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3983,54 +3983,54 @@
         <v>8</v>
       </c>
       <c r="P56" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q56" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R56" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S56" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B57" t="n">
-        <v>52.98430163590439</v>
+        <v>72.47962978740433</v>
       </c>
       <c r="C57" t="n">
-        <v>130.0992793993142</v>
+        <v>598.0659495896725</v>
       </c>
       <c r="D57" t="n">
-        <v>8.13236556620939e-07</v>
+        <v>2.634846173369771e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0003464196573574471</v>
+        <v>0.001694436023530878</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.499851902225513</v>
+        <v>-0.1885136361389663</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2566883094288201</v>
+        <v>0.5224106305422251</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1494372290856267</v>
+        <v>1.107217787345991</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.108368487515247</v>
+        <v>-1.21881263453929</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4046,54 +4046,54 @@
         <v>8</v>
       </c>
       <c r="P57" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q57" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R57" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S57" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B58" t="n">
-        <v>72.21815754021191</v>
+        <v>139.1441465000312</v>
       </c>
       <c r="C58" t="n">
-        <v>236.1463772299043</v>
+        <v>605.1441877373304</v>
       </c>
       <c r="D58" t="n">
-        <v>1.700662792875911e-07</v>
+        <v>4.796448296031072e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0001924183756250785</v>
+        <v>0.001934396853150123</v>
       </c>
       <c r="F58" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6813033730208669</v>
+        <v>0.09398805120396587</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7896262722657879</v>
+        <v>0.897498490885862</v>
       </c>
       <c r="K58" t="n">
-        <v>2.157073793328142</v>
+        <v>2.44302629013494</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.9331027394089518</v>
+        <v>-1.499798182803224</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4109,54 +4109,54 @@
         <v>8</v>
       </c>
       <c r="P58" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q58" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R58" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S58" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.09433962264150943</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B59" t="n">
-        <v>20.69359918692067</v>
+        <v>111.0257452296914</v>
       </c>
       <c r="C59" t="n">
-        <v>101.3347373219381</v>
+        <v>785.0667742331635</v>
       </c>
       <c r="D59" t="n">
-        <v>3.670453274327883e-06</v>
+        <v>1.04620614037863e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0009189317451472517</v>
+        <v>0.0044120186008116</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.07604061598867838</v>
+        <v>0.09130970945776273</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3844664242570242</v>
+        <v>0.9451899524295012</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6945814802986989</v>
+        <v>3.215667282452795</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.002838432453141</v>
+        <v>-1.112157461484304</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4172,54 +4172,54 @@
         <v>8</v>
       </c>
       <c r="P59" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q59" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R59" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S59" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="B60" t="n">
-        <v>55.71143654914404</v>
+        <v>64.68961597521421</v>
       </c>
       <c r="C60" t="n">
-        <v>124.9399634615136</v>
+        <v>465.8403584087412</v>
       </c>
       <c r="D60" t="n">
-        <v>1.037965553325267e-06</v>
+        <v>2.392980519959084e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0005127137043284842</v>
+        <v>0.0004731255482604586</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.5255795900862645</v>
+        <v>0.02829771109315648</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2595778182171607</v>
+        <v>0.5135719424670306</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1370347605060556</v>
+        <v>1.005187372448626</v>
       </c>
       <c r="L60" t="n">
-        <v>-1.00692504224511</v>
+        <v>-0.907317515893736</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4235,16 +4235,16 @@
         <v>8</v>
       </c>
       <c r="P60" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q60" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R60" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S60" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61">
@@ -4252,37 +4252,37 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>60.45808906794567</v>
+        <v>123.24508474076</v>
       </c>
       <c r="C61" t="n">
-        <v>124.6645700613594</v>
+        <v>467.2624224464594</v>
       </c>
       <c r="D61" t="n">
-        <v>3.022581226927244e-06</v>
+        <v>1.436269946896901e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0007365971759964629</v>
+        <v>0.0008264558882187899</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.570359330829676</v>
+        <v>-0.4581601663225279</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2172506860481543</v>
+        <v>0.4082100577438406</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1997832243647676</v>
+        <v>0.5135696146182095</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.9593957191519634</v>
+        <v>-1.424266645745544</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4298,16 +4298,16 @@
         <v>8</v>
       </c>
       <c r="P61" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="Q61" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="R61" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="S61" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
